--- a/record_layout.xlsx
+++ b/record_layout.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noli/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbrazil.AD3\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C77324-8F70-3646-A877-6DF73A8751D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{7567E1F4-FC7F-2844-9475-72B0E11F693B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>GEOID</t>
   </si>
@@ -75,9 +74,6 @@
     <t>npm</t>
   </si>
   <si>
-    <t>nnpm</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -115,9 +111,6 @@
   </si>
   <si>
     <t>Adjacent neighbor mean PM 2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network without adjacent neighbors mean PM 2.5 </t>
   </si>
   <si>
     <t xml:space="preserve">Network mean PM 2.5 </t>
@@ -129,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -483,136 +476,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04E6F82-4BA5-0B44-8D86-8D34ED2FFFD5}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/record_layout.xlsx
+++ b/record_layout.xlsx
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
-    <t>GEOID</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -62,61 +59,64 @@
     <t>povr</t>
   </si>
   <si>
-    <t>ttrips</t>
-  </si>
-  <si>
     <t>PM25</t>
   </si>
   <si>
-    <t>mpm</t>
-  </si>
-  <si>
-    <t>npm</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Census tract FIPS code</t>
-  </si>
-  <si>
-    <t>City name</t>
-  </si>
-  <si>
     <t>Metropolitan area name</t>
   </si>
   <si>
-    <t>Total population</t>
-  </si>
-  <si>
-    <t>Percent non-Hispanic white</t>
-  </si>
-  <si>
-    <t>Percent non-Hispanic black</t>
-  </si>
-  <si>
-    <t>Percent non-Hispanc Asian</t>
-  </si>
-  <si>
-    <t>Percent Hispanic</t>
-  </si>
-  <si>
-    <t>Percent poverty</t>
-  </si>
-  <si>
-    <t>Total number of trips leaving neighborhood</t>
-  </si>
-  <si>
-    <t>Adjacent neighbor mean PM 2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network mean PM 2.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particulate matter (PM) 2.5 </t>
+    <t>GEOIDo</t>
+  </si>
+  <si>
+    <t>GEOIDd</t>
+  </si>
+  <si>
+    <t>trips</t>
+  </si>
+  <si>
+    <t>dPM25</t>
+  </si>
+  <si>
+    <t>Origin Census tract FIPS code</t>
+  </si>
+  <si>
+    <t>Destination Census tract FIPS code</t>
+  </si>
+  <si>
+    <t>Origin City name</t>
+  </si>
+  <si>
+    <t>Trips from origin to destination</t>
+  </si>
+  <si>
+    <t>Origin Total population</t>
+  </si>
+  <si>
+    <t>Origin Percent non-Hispanic white</t>
+  </si>
+  <si>
+    <t>Origin Percent non-Hispanic black</t>
+  </si>
+  <si>
+    <t>Origin Percent non-Hispanc Asian</t>
+  </si>
+  <si>
+    <t>Origin Percent Hispanic</t>
+  </si>
+  <si>
+    <t>Origin Percent poverty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origin Particulate matter (PM) 2.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DestinationNetwork mean PM 2.5 </t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -490,47 +490,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -578,15 +578,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -594,10 +594,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
